--- a/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
@@ -1324,17 +1324,39 @@
       <c r="M4" s="4" t="n">
         <v>64.60176991150442</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1453,34 +1475,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.04273117597030027</v>
+        <v>0.0421518742216016</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3954850723381995</v>
+        <v>0.4213912329982636</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.4382162483084998</v>
+        <v>0.4635431072198652</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
     </row>
   </sheetData>
@@ -1598,34 +1620,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.04273117597030027</v>
+        <v>0.0421518742216016</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3954850723381995</v>
+        <v>0.4213912329982636</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.4382162483084998</v>
+        <v>0.4635431072198652</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
     </row>
     <row r="5">
@@ -1635,34 +1657,34 @@
         </is>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0.04273117597030027</v>
+        <v>0.0421518742216016</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.3954850723381995</v>
+        <v>0.4213912329982636</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.4382162483084998</v>
+        <v>0.4635431072198652</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.3668189016915003</v>
+        <v>0.3509161094855612</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
     </row>
   </sheetData>
@@ -1782,34 +1804,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.45285902814432</v>
+        <v>45.45285902814433</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>54.54714097185567</v>
+        <v>54.54714097185568</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>45.45285902814432</v>
+        <v>45.45285902814433</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>54.54714097185567</v>
+        <v>54.54714097185568</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.45285902814433</v>
+        <v>45.46811382582053</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>54.54714097185568</v>
+        <v>54.53188617417947</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>45.45285902814433</v>
+        <v>45.46811382582053</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>54.54714097185568</v>
+        <v>54.53188617417947</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 37_summary.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>9</v>
@@ -636,28 +636,28 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>40</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>9</v>
@@ -758,28 +758,28 @@
         <v>31</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>40</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>9</v>
@@ -801,28 +801,28 @@
         <v>31</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +876,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>114</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>113</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>39</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>114</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>113</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>39</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>39</v>
@@ -1015,28 +1015,28 @@
         <v>31</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>40</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
     <row r="3">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>39</v>
@@ -1061,28 +1061,28 @@
         <v>31</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>9</v>
@@ -1301,28 +1301,28 @@
         <v>31</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>40</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.964601769911504</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>27.43362831858407</v>
+        <v>27.19298245614035</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>35.39823008849557</v>
+        <v>35.08771929824561</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>64.60176991150442</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>40</v>
